--- a/project03 - 요구사항 정의서 - 현태.xlsx
+++ b/project03 - 요구사항 정의서 - 현태.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -216,120 +216,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>로그인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>리워드 펀딩 프로젝트 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>베스트 프로젝트 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별 프로젝트 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>다가올 펀딩 미리 보기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 신고</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>지나간 프로젝트 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심 프로젝트 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q&amp;A</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>펀딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방법</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>실시간 상담</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>채팅 상담</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>회원관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>등록 신청 프로젝트 검토 및 승인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -339,30 +233,6 @@
   </si>
   <si>
     <t>커뮤니티 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>펀딩하는 방법</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>실시간 채팅 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>예치금 관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -530,27 +400,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 제작 회원 (메이커)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 투자 회원 (서포터)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>투자 펀딩 프로젝트 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 (진입 화면)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면 (진입 화면)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -605,10 +455,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 관련 자유 게시판 및 토론 게시판</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>최근 이슈 및 회사 운영 관련 공지사항</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -622,10 +468,6 @@
   </si>
   <si>
     <t>관심 프로젝트로 등록 후 마이페이지에서 모아보기 및 펀딩 할 수 있도록 설정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자와의 실시간 채팅을 통한 상담 (로그인 필수)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1001,6 +843,250 @@
 - 프로젝트 이름, 펀딩 받을 목표금액, 상품 가격, 프로젝트 진행 기간, 프로젝트 고유 주소, 프로젝트 대표 이미지, 프로젝트 키워드, 프로젝트 세부 동영상, 프로젝트 세부 이미지, 프로젝트 세부 내용, 리워드 세부내용, 환불 정책, 문의 가능 번호, 사업자 등록 번호 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>관리자와의 실시간 채팅을 통한 상담 (로그인 필수)
+- 모든 페이지 오른쪽 하단 플로팅 배너</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 및 실시간 채팅</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 관련</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이커 회원 프로젝트 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터 회원 프로젝트 펀딩</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관련</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>커뮤니티 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 채팅 관리
+메인화면 관리</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 (5)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예치금 관리 (-)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 (진입 화면) (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자 펀딩 프로젝트 등록 (3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리워드 펀딩 프로젝트 등록 (3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 (진입 화면) (1+1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>베스트 프로젝트 확인 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>지나간 프로젝트 확인 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>다가올 펀딩 미리 보기 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 신고 (-)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심 프로젝트 등록 (-)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 관련 자유 게시판 및 토론 게시판 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>펀딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 상담 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 제작 회원 (메이커) (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 투자 회원 (서포터) (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록 신청 프로젝트 검토 및 승인 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 관리 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 관리 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩하는 방법 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 관리 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 채팅 관리 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 관리 (1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 프로젝트 확인 (1+1+1)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1120,7 +1206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1596,11 +1682,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1758,94 +1855,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1878,9 +1891,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,6 +1909,42 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1916,6 +1962,82 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2134,19 +2256,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="135.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="24.140625" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
@@ -2193,22 +2315,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="101"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2230,20 +2352,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="58"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2369,13 +2491,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="75" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="22" t="s">
@@ -2384,29 +2506,29 @@
       <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="60" t="s">
+      <c r="N7" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="62" t="s">
+      <c r="P7" s="89" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2428,12 +2550,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="59"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="23">
         <v>43854</v>
       </c>
@@ -2449,11 +2571,11 @@
       <c r="K8" s="23">
         <v>43861</v>
       </c>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2473,15 +2595,15 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="89" t="s">
-        <v>107</v>
+      <c r="B9" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="61" t="s">
+        <v>79</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -2520,15 +2642,15 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="73" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="78" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="97" t="s">
-        <v>94</v>
+        <v>111</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>67</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -2567,13 +2689,13 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A11" s="101"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="90" t="s">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>76</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -2612,13 +2734,13 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="101"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="90" t="s">
-        <v>95</v>
+        <v>113</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>68</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -2657,13 +2779,13 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A13" s="101"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="90" t="s">
-        <v>96</v>
+        <v>114</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -2696,15 +2818,15 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="36">
-      <c r="A14" s="101"/>
-      <c r="B14" s="67" t="s">
-        <v>85</v>
+      <c r="A14" s="84"/>
+      <c r="B14" s="94" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>97</v>
+        <v>116</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>70</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -2743,13 +2865,13 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="36">
-      <c r="A15" s="101"/>
-      <c r="B15" s="68"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="90" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>95</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -2788,15 +2910,15 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="36">
-      <c r="A16" s="101"/>
-      <c r="B16" s="67" t="s">
-        <v>86</v>
+      <c r="A16" s="84"/>
+      <c r="B16" s="94" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>98</v>
+        <v>138</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -2835,13 +2957,13 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="36">
-      <c r="A17" s="101"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="90" t="s">
-        <v>99</v>
+        <v>119</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>72</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -2880,13 +3002,13 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="90" t="s">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>73</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2925,13 +3047,13 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A19" s="101"/>
-      <c r="B19" s="69"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="90" t="s">
-        <v>102</v>
+        <v>121</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>75</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -2970,13 +3092,13 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A20" s="101"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>101</v>
+        <v>122</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>74</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -3015,13 +3137,13 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A21" s="101"/>
-      <c r="B21" s="68"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>108</v>
+        <v>123</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>80</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="16"/>
@@ -3060,15 +3182,15 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="64" t="s">
-        <v>87</v>
+      <c r="A22" s="84"/>
+      <c r="B22" s="91" t="s">
+        <v>65</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="90" t="s">
-        <v>110</v>
+        <v>124</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>81</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
@@ -3103,13 +3225,13 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A23" s="101"/>
-      <c r="B23" s="65"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="90" t="s">
-        <v>105</v>
+        <v>125</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="15"/>
@@ -3148,13 +3270,13 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A24" s="101"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="94" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="15"/>
@@ -3193,13 +3315,13 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A25" s="101"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="90" t="s">
-        <v>106</v>
+        <v>127</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>78</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="15"/>
@@ -3237,16 +3359,16 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A26" s="102"/>
+    <row r="26" spans="1:33" ht="27" customHeight="1" thickBot="1">
+      <c r="A26" s="85"/>
       <c r="B26" s="32" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="93" t="s">
-        <v>109</v>
+        <v>128</v>
+      </c>
+      <c r="D26" s="107" t="s">
+        <v>96</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
@@ -3285,25 +3407,25 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="27.75" customHeight="1" thickTop="1">
-      <c r="A27" s="103" t="s">
-        <v>91</v>
+      <c r="A27" s="86" t="s">
+        <v>66</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C27" s="82"/>
-      <c r="D27" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="88"/>
+      <c r="D27" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="60"/>
       <c r="N27" s="8"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -3326,15 +3448,15 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="48">
-      <c r="A28" s="104"/>
-      <c r="B28" s="70" t="s">
-        <v>73</v>
+      <c r="A28" s="87"/>
+      <c r="B28" s="79" t="s">
+        <v>59</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="97" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>94</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -3371,13 +3493,13 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="48">
-      <c r="A29" s="104"/>
-      <c r="B29" s="70"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="94" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -3414,15 +3536,15 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="79" t="s">
-        <v>76</v>
+      <c r="A30" s="87"/>
+      <c r="B30" s="76" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="94" t="s">
-        <v>113</v>
+        <v>131</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>84</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -3459,13 +3581,13 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="91" t="s">
-        <v>114</v>
+        <v>132</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>85</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -3502,15 +3624,15 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A32" s="104"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="24" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="95" t="s">
-        <v>115</v>
+        <v>133</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>86</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -3545,15 +3667,15 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="73" t="s">
-        <v>78</v>
+      <c r="A33" s="87"/>
+      <c r="B33" s="78" t="s">
+        <v>62</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="96" t="s">
-        <v>116</v>
+        <v>125</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>87</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -3586,13 +3708,13 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A34" s="104"/>
-      <c r="B34" s="70"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="96" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>88</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -3625,13 +3747,13 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A35" s="104"/>
-      <c r="B35" s="74"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="80"/>
       <c r="C35" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="96" t="s">
-        <v>118</v>
+        <v>134</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>89</v>
       </c>
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
@@ -3664,13 +3786,13 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A36" s="104"/>
-      <c r="B36" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="96" t="s">
-        <v>119</v>
+      <c r="A36" s="87"/>
+      <c r="B36" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="72"/>
+      <c r="D36" s="67" t="s">
+        <v>90</v>
       </c>
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
@@ -3703,13 +3825,13 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A37" s="104"/>
-      <c r="B37" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="99" t="s">
-        <v>121</v>
+      <c r="A37" s="87"/>
+      <c r="B37" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="74"/>
+      <c r="D37" s="70" t="s">
+        <v>92</v>
       </c>
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
@@ -3742,13 +3864,13 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="99" t="s">
-        <v>120</v>
+      <c r="A38" s="88"/>
+      <c r="B38" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="74"/>
+      <c r="D38" s="70" t="s">
+        <v>91</v>
       </c>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
@@ -3838,16 +3960,19 @@
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1">
+    <row r="41" spans="1:33" ht="12.75">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="109" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" s="54"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -3870,16 +3995,23 @@
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
     </row>
-    <row r="42" spans="1:33" ht="15.75" customHeight="1">
+    <row r="42" spans="1:33" ht="24">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="F42" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="111" t="s">
+        <v>110</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="1"/>
@@ -3910,11 +4042,16 @@
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="F43" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="112"/>
       <c r="L43" s="14"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3943,14 +4080,16 @@
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="F44" s="114" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="112"/>
       <c r="K44" s="1"/>
       <c r="L44" s="2"/>
       <c r="M44" s="1"/>
@@ -3980,13 +4119,17 @@
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="1" t="s">
-        <v>54</v>
+      <c r="F45" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="112" t="s">
+        <v>109</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="2"/>
@@ -4017,14 +4160,16 @@
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="F46" s="114" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="110" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="112"/>
       <c r="K46" s="1"/>
       <c r="L46" s="2"/>
       <c r="M46" s="1"/>
@@ -4059,9 +4204,6 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K47" s="1"/>
       <c r="L47" s="2"/>
       <c r="M47" s="1"/>
@@ -4096,9 +4238,6 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K48" s="1"/>
       <c r="L48" s="2"/>
       <c r="M48" s="1"/>
@@ -4163,7 +4302,6 @@
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -4198,7 +4336,6 @@
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -4233,9 +4370,10 @@
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="G52" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -4268,9 +4406,10 @@
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="G53" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -4303,9 +4442,10 @@
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="G54" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -4340,7 +4480,9 @@
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="G55" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -4375,7 +4517,9 @@
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="G56" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -11611,6 +11755,20 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="25">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
@@ -11622,20 +11780,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A9:A26"/>
     <mergeCell ref="A27:A38"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/project03 - 요구사항 정의서 - 현태.xlsx
+++ b/project03 - 요구사항 정의서 - 현태.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -73,123 +73,7 @@
     <t>우선순위</t>
   </si>
   <si>
-    <t>화면코드(PC)</t>
-  </si>
-  <si>
-    <t>화면코드(Mobile)</t>
-  </si>
-  <si>
     <t>사용자</t>
-  </si>
-  <si>
-    <t>HJ - P - 001
-HJ - P - 002
-HT – P - 003</t>
-  </si>
-  <si>
-    <t>HJ - M - 001
-HJ - M - 002
-HT – M - 003</t>
-  </si>
-  <si>
-    <t>HT – P - 004</t>
-  </si>
-  <si>
-    <t>HT – M - 004</t>
-  </si>
-  <si>
-    <t>HT – P - 005</t>
-  </si>
-  <si>
-    <t>HT – M - 005</t>
-  </si>
-  <si>
-    <t>HT – P - 006</t>
-  </si>
-  <si>
-    <t>HT – M - 006</t>
-  </si>
-  <si>
-    <t>KB – P - 007</t>
-  </si>
-  <si>
-    <t>KB – M - 007</t>
-  </si>
-  <si>
-    <t>KB – P - 008</t>
-  </si>
-  <si>
-    <t>KB – M - 008</t>
-  </si>
-  <si>
-    <t>HT – P - 009</t>
-  </si>
-  <si>
-    <t>HT – M - 009</t>
-  </si>
-  <si>
-    <t>HT – P - 010</t>
-  </si>
-  <si>
-    <t>HT – M - 010</t>
-  </si>
-  <si>
-    <t>HT – P - 011</t>
-  </si>
-  <si>
-    <t>HT – M - 011</t>
-  </si>
-  <si>
-    <t>HJ - P - 001</t>
-  </si>
-  <si>
-    <t>HJ - M - 001</t>
-  </si>
-  <si>
-    <t>KB – P – 013</t>
-  </si>
-  <si>
-    <t>KB – M – 013</t>
-  </si>
-  <si>
-    <t>YS – P – 014
-YS – P – 015</t>
-  </si>
-  <si>
-    <t>YS – M – 014
-YS – M – 015</t>
-  </si>
-  <si>
-    <t>YS – P – 016</t>
-  </si>
-  <si>
-    <t>YS – M – 016</t>
-  </si>
-  <si>
-    <t>YS – P – 017
-YS – P – 018</t>
-  </si>
-  <si>
-    <t>YS – M – 017
-YS – M – 018</t>
-  </si>
-  <si>
-    <t>SH – P – 012</t>
-  </si>
-  <si>
-    <t>HT – P – 021</t>
-  </si>
-  <si>
-    <t>SH – P – 022</t>
-  </si>
-  <si>
-    <t>KB – P – 026
-KB – P – 027</t>
-  </si>
-  <si>
-    <t>HJ – P – 028
-HJ – P – 029
-HJ – P – 030</t>
   </si>
   <si>
     <t>현태</t>
@@ -1087,6 +971,26 @@
     <t>E</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>화면코드(WEB)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면코드(MOBILE)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_w_ht_</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_m_ht_</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_ht_</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1206,7 +1110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1693,11 +1597,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1837,9 +1750,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1912,6 +1822,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1921,22 +1925,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1963,81 +1955,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2256,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2266,15 +2209,15 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="135.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" customWidth="1"/>
-    <col min="13" max="13" width="44" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="44" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2315,22 +2258,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="101"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2352,20 +2295,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="85"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2491,13 +2434,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="86" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="22" t="s">
@@ -2506,30 +2449,30 @@
       <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75" t="s">
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="75" t="s">
+      <c r="M7" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="87" t="s">
         <v>15</v>
       </c>
       <c r="O7" s="89" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="P7" s="89" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -2550,12 +2493,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="75"/>
+      <c r="F8" s="86"/>
       <c r="G8" s="23">
         <v>43854</v>
       </c>
@@ -2571,9 +2514,9 @@
       <c r="K8" s="23">
         <v>43861</v>
       </c>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="106"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="88"/>
       <c r="O8" s="90"/>
       <c r="P8" s="90"/>
       <c r="Q8" s="1"/>
@@ -2595,15 +2538,15 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A9" s="83" t="s">
-        <v>18</v>
+      <c r="A9" s="110" t="s">
+        <v>16</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>118</v>
+      <c r="B9" s="98" t="s">
+        <v>83</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="61" t="s">
-        <v>79</v>
+      <c r="C9" s="99"/>
+      <c r="D9" s="60" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
@@ -2614,14 +2557,12 @@
       <c r="K9" s="37"/>
       <c r="L9" s="27"/>
       <c r="M9" s="38"/>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
+      <c r="N9" s="5"/>
       <c r="O9" s="6" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -2642,15 +2583,15 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="78" t="s">
-        <v>57</v>
+      <c r="A10" s="111"/>
+      <c r="B10" s="100" t="s">
+        <v>22</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>111</v>
+      <c r="C10" s="48" t="s">
+        <v>76</v>
       </c>
-      <c r="D10" s="68" t="s">
-        <v>67</v>
+      <c r="D10" s="67" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -2661,15 +2602,11 @@
       <c r="K10" s="37"/>
       <c r="L10" s="27"/>
       <c r="M10" s="38"/>
-      <c r="N10" s="5">
-        <v>1</v>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6" t="s">
+        <v>113</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="P10" s="6"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2689,13 +2626,13 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="19" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>76</v>
+      <c r="D11" s="61" t="s">
+        <v>41</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -2706,15 +2643,9 @@
       <c r="K11" s="37"/>
       <c r="L11" s="28"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="8">
-        <v>2</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -2734,13 +2665,13 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="84"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="19" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
-      <c r="D12" s="62" t="s">
-        <v>68</v>
+      <c r="D12" s="61" t="s">
+        <v>33</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -2751,15 +2682,9 @@
       <c r="K12" s="37"/>
       <c r="L12" s="28"/>
       <c r="M12" s="39"/>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -2779,13 +2704,13 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A13" s="84"/>
-      <c r="B13" s="80"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="19" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
-      <c r="D13" s="62" t="s">
-        <v>69</v>
+      <c r="D13" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -2818,15 +2743,15 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="36">
-      <c r="A14" s="84"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="94" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
-      <c r="D14" s="62" t="s">
-        <v>70</v>
+      <c r="D14" s="61" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -2837,15 +2762,9 @@
       <c r="K14" s="37"/>
       <c r="L14" s="28"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="8">
-        <v>2</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2865,13 +2784,13 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="36">
-      <c r="A15" s="84"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="95"/>
       <c r="C15" s="20" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
-      <c r="D15" s="62" t="s">
-        <v>95</v>
+      <c r="D15" s="61" t="s">
+        <v>60</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -2882,15 +2801,9 @@
       <c r="K15" s="37"/>
       <c r="L15" s="28"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2910,15 +2823,15 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="36">
-      <c r="A16" s="84"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="94" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
-      <c r="D16" s="62" t="s">
-        <v>71</v>
+      <c r="D16" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -2929,15 +2842,9 @@
       <c r="K16" s="37"/>
       <c r="L16" s="28"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -2957,32 +2864,26 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="36">
-      <c r="A17" s="84"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="96"/>
       <c r="C17" s="19" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
-      <c r="D17" s="62" t="s">
-        <v>72</v>
+      <c r="D17" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="50"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="26"/>
       <c r="K17" s="37"/>
       <c r="L17" s="28"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="8">
-        <v>2</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -3002,32 +2903,26 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A18" s="84"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="96"/>
       <c r="C18" s="19" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
-      <c r="D18" s="62" t="s">
-        <v>73</v>
+      <c r="D18" s="61" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="50"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="26"/>
       <c r="K18" s="37"/>
       <c r="L18" s="28"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -3047,32 +2942,26 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A19" s="84"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="96"/>
       <c r="C19" s="19" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
-      <c r="D19" s="62" t="s">
-        <v>75</v>
+      <c r="D19" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="50"/>
+      <c r="I19" s="49"/>
       <c r="J19" s="26"/>
       <c r="K19" s="37"/>
       <c r="L19" s="28"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="8">
-        <v>2</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -3092,13 +2981,13 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A20" s="84"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="96"/>
       <c r="C20" s="19" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
-      <c r="D20" s="63" t="s">
-        <v>74</v>
+      <c r="D20" s="62" t="s">
+        <v>39</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -3109,15 +2998,9 @@
       <c r="K20" s="37"/>
       <c r="L20" s="28"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="8">
-        <v>2</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -3137,15 +3020,15 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A21" s="84"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="95"/>
       <c r="C21" s="20" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
-      <c r="D21" s="64" t="s">
-        <v>80</v>
+      <c r="D21" s="63" t="s">
+        <v>45</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="16"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -3154,15 +3037,9 @@
       <c r="K21" s="37"/>
       <c r="L21" s="28"/>
       <c r="M21" s="41"/>
-      <c r="N21" s="8">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -3182,15 +3059,15 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A22" s="84"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="91" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
-      <c r="D22" s="62" t="s">
-        <v>81</v>
+      <c r="D22" s="61" t="s">
+        <v>46</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
@@ -3201,9 +3078,7 @@
       <c r="K22" s="37"/>
       <c r="L22" s="28"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="8">
-        <v>3</v>
-      </c>
+      <c r="N22" s="8"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="1"/>
@@ -3225,13 +3100,13 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A23" s="84"/>
+      <c r="A23" s="111"/>
       <c r="B23" s="92"/>
       <c r="C23" s="20" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
-      <c r="D23" s="62" t="s">
-        <v>77</v>
+      <c r="D23" s="61" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="15"/>
@@ -3242,15 +3117,9 @@
       <c r="K23" s="37"/>
       <c r="L23" s="29"/>
       <c r="M23" s="13"/>
-      <c r="N23" s="8">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3270,13 +3139,13 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A24" s="84"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="92"/>
       <c r="C24" s="20" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
-      <c r="D24" s="65" t="s">
-        <v>82</v>
+      <c r="D24" s="64" t="s">
+        <v>47</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="15"/>
@@ -3287,15 +3156,9 @@
       <c r="K24" s="37"/>
       <c r="L24" s="29"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="8">
-        <v>2</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3315,13 +3178,13 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A25" s="84"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="93"/>
-      <c r="C25" s="52" t="s">
-        <v>127</v>
+      <c r="C25" s="51" t="s">
+        <v>92</v>
       </c>
-      <c r="D25" s="62" t="s">
-        <v>78</v>
+      <c r="D25" s="61" t="s">
+        <v>43</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="15"/>
@@ -3332,15 +3195,9 @@
       <c r="K25" s="37"/>
       <c r="L25" s="29"/>
       <c r="M25" s="13"/>
-      <c r="N25" s="8">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3360,15 +3217,15 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="27" customHeight="1" thickBot="1">
-      <c r="A26" s="85"/>
+      <c r="A26" s="112"/>
       <c r="B26" s="32" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
-      <c r="D26" s="107" t="s">
-        <v>96</v>
+      <c r="D26" s="72" t="s">
+        <v>61</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
@@ -3379,15 +3236,9 @@
       <c r="K26" s="42"/>
       <c r="L26" s="36"/>
       <c r="M26" s="33"/>
-      <c r="N26" s="8">
-        <v>2</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="N26" s="123"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="124"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3407,28 +3258,28 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="27.75" customHeight="1" thickTop="1">
-      <c r="A27" s="86" t="s">
-        <v>66</v>
+      <c r="A27" s="113" t="s">
+        <v>31</v>
       </c>
-      <c r="B27" s="81" t="s">
-        <v>115</v>
+      <c r="B27" s="108" t="s">
+        <v>80</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="69" t="s">
-        <v>83</v>
+      <c r="C27" s="109"/>
+      <c r="D27" s="68" t="s">
+        <v>48</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3448,15 +3299,15 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="48">
-      <c r="A28" s="87"/>
-      <c r="B28" s="79" t="s">
-        <v>59</v>
+      <c r="A28" s="114"/>
+      <c r="B28" s="97" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
-      <c r="D28" s="68" t="s">
-        <v>94</v>
+      <c r="D28" s="67" t="s">
+        <v>59</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -3467,12 +3318,8 @@
       <c r="K28" s="43"/>
       <c r="L28" s="44"/>
       <c r="M28" s="45"/>
-      <c r="N28" s="8">
-        <v>3</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="6"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -3493,13 +3340,13 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="48">
-      <c r="A29" s="87"/>
-      <c r="B29" s="79"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="20" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
-      <c r="D29" s="65" t="s">
-        <v>93</v>
+      <c r="D29" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -3510,12 +3357,8 @@
       <c r="K29" s="37"/>
       <c r="L29" s="46"/>
       <c r="M29" s="40"/>
-      <c r="N29" s="8">
-        <v>3</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -3536,15 +3379,15 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A30" s="87"/>
-      <c r="B30" s="76" t="s">
-        <v>60</v>
+      <c r="A30" s="114"/>
+      <c r="B30" s="106" t="s">
+        <v>25</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
-      <c r="D30" s="65" t="s">
-        <v>84</v>
+      <c r="D30" s="64" t="s">
+        <v>49</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -3555,12 +3398,8 @@
       <c r="K30" s="37"/>
       <c r="L30" s="46"/>
       <c r="M30" s="40"/>
-      <c r="N30" s="8">
-        <v>3</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="13"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -3581,13 +3420,13 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A31" s="87"/>
-      <c r="B31" s="77"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="107"/>
       <c r="C31" s="20" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
-      <c r="D31" s="63" t="s">
-        <v>85</v>
+      <c r="D31" s="62" t="s">
+        <v>50</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -3598,13 +3437,9 @@
       <c r="K31" s="37"/>
       <c r="L31" s="46"/>
       <c r="M31" s="40"/>
-      <c r="N31" s="8">
-        <v>3</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P31" s="3"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="118"/>
+      <c r="P31" s="119"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3624,30 +3459,28 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A32" s="87"/>
+      <c r="A32" s="114"/>
       <c r="B32" s="24" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
-      <c r="D32" s="66" t="s">
-        <v>86</v>
+      <c r="D32" s="65" t="s">
+        <v>51</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="48"/>
+      <c r="J32" s="47"/>
       <c r="K32" s="37"/>
       <c r="L32" s="46"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="8">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="120"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -3667,15 +3500,15 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A33" s="87"/>
-      <c r="B33" s="78" t="s">
-        <v>62</v>
+      <c r="A33" s="114"/>
+      <c r="B33" s="100" t="s">
+        <v>27</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
-      <c r="D33" s="67" t="s">
-        <v>87</v>
+      <c r="D33" s="66" t="s">
+        <v>52</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -3685,10 +3518,10 @@
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="120"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -3708,13 +3541,13 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="20" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
-      <c r="D34" s="67" t="s">
-        <v>88</v>
+      <c r="D34" s="66" t="s">
+        <v>53</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -3724,10 +3557,10 @@
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -3747,26 +3580,26 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A35" s="87"/>
-      <c r="B35" s="80"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="20" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
-      <c r="D35" s="67" t="s">
-        <v>89</v>
+      <c r="D35" s="66" t="s">
+        <v>54</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
       <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -3786,26 +3619,26 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A36" s="87"/>
-      <c r="B36" s="71" t="s">
-        <v>135</v>
+      <c r="A36" s="114"/>
+      <c r="B36" s="102" t="s">
+        <v>100</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="67" t="s">
-        <v>90</v>
+      <c r="C36" s="103"/>
+      <c r="D36" s="66" t="s">
+        <v>55</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="120"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -3825,26 +3658,26 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A37" s="87"/>
-      <c r="B37" s="73" t="s">
-        <v>136</v>
+      <c r="A37" s="114"/>
+      <c r="B37" s="104" t="s">
+        <v>101</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="70" t="s">
-        <v>92</v>
+      <c r="C37" s="105"/>
+      <c r="D37" s="69" t="s">
+        <v>57</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="121"/>
+      <c r="P37" s="121"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -3864,26 +3697,26 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A38" s="88"/>
-      <c r="B38" s="73" t="s">
-        <v>137</v>
+      <c r="A38" s="115"/>
+      <c r="B38" s="104" t="s">
+        <v>102</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="70" t="s">
-        <v>91</v>
+      <c r="C38" s="105"/>
+      <c r="D38" s="69" t="s">
+        <v>56</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="121"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -3965,14 +3798,14 @@
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="109" t="s">
-        <v>102</v>
+      <c r="F41" s="73"/>
+      <c r="G41" s="74" t="s">
+        <v>67</v>
       </c>
-      <c r="H41" s="109" t="s">
-        <v>103</v>
+      <c r="H41" s="74" t="s">
+        <v>68</v>
       </c>
-      <c r="I41" s="54"/>
+      <c r="I41" s="53"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -4000,17 +3833,17 @@
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="F42" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" s="110" t="s">
+      <c r="F42" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="I42" s="111" t="s">
-        <v>110</v>
+      <c r="G42" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="I42" s="76" t="s">
+        <v>75</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -4042,16 +3875,16 @@
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="F43" s="113" t="s">
-        <v>140</v>
-      </c>
-      <c r="G43" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" s="110" t="s">
+      <c r="F43" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="I43" s="112"/>
+      <c r="G43" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="77"/>
       <c r="L43" s="14"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -4080,16 +3913,16 @@
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="F44" s="114" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="H44" s="110" t="s">
+      <c r="F44" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="I44" s="112"/>
+      <c r="G44" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44" s="77"/>
       <c r="K44" s="1"/>
       <c r="L44" s="2"/>
       <c r="M44" s="1"/>
@@ -4119,17 +3952,17 @@
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="F45" s="53" t="s">
-        <v>142</v>
+      <c r="F45" s="52" t="s">
+        <v>107</v>
       </c>
-      <c r="G45" s="110" t="s">
-        <v>100</v>
+      <c r="G45" s="75" t="s">
+        <v>65</v>
       </c>
-      <c r="H45" s="110" t="s">
-        <v>108</v>
+      <c r="H45" s="75" t="s">
+        <v>73</v>
       </c>
-      <c r="I45" s="112" t="s">
-        <v>109</v>
+      <c r="I45" s="77" t="s">
+        <v>74</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="2"/>
@@ -4160,16 +3993,16 @@
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="114" t="s">
-        <v>143</v>
+      <c r="F46" s="79" t="s">
+        <v>108</v>
       </c>
-      <c r="G46" s="110" t="s">
-        <v>101</v>
+      <c r="G46" s="75" t="s">
+        <v>66</v>
       </c>
-      <c r="H46" s="110" t="s">
-        <v>107</v>
+      <c r="H46" s="75" t="s">
+        <v>72</v>
       </c>
-      <c r="I46" s="112"/>
+      <c r="I46" s="77"/>
       <c r="K46" s="1"/>
       <c r="L46" s="2"/>
       <c r="M46" s="1"/>
@@ -4372,7 +4205,7 @@
       <c r="D52" s="1"/>
       <c r="F52" s="2"/>
       <c r="G52" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -4408,7 +4241,7 @@
       <c r="D53" s="1"/>
       <c r="F53" s="2"/>
       <c r="G53" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -4444,7 +4277,7 @@
       <c r="D54" s="1"/>
       <c r="F54" s="2"/>
       <c r="G54" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -4481,7 +4314,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -4518,7 +4351,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -11755,20 +11588,6 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B13"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
@@ -11780,6 +11599,20 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A9:A26"/>
     <mergeCell ref="A27:A38"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -11807,7 +11640,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -11815,7 +11648,7 @@
     </row>
     <row r="3" spans="2:3" ht="12.75">
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -11823,7 +11656,7 @@
     </row>
     <row r="4" spans="2:3" ht="12.75">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -11831,7 +11664,7 @@
     </row>
     <row r="5" spans="2:3" ht="12.75">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -11839,7 +11672,7 @@
     </row>
     <row r="6" spans="2:3" ht="12.75">
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>

--- a/project03 - 요구사항 정의서 - 현태.xlsx
+++ b/project03 - 요구사항 정의서 - 현태.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
   <si>
     <t>로그인 및 계정관련</t>
   </si>
@@ -991,6 +991,12 @@
     <t>admin_ht_</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>user_w_hj_
+make_reward
+_funding_project</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1847,31 +1853,85 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1898,88 +1958,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2199,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2209,15 +2215,15 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="135.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="19" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="44" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="9" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
+    <col min="13" max="13" width="44" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
     <col min="15" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2258,22 +2264,22 @@
     </row>
     <row r="2" spans="1:33" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="119"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2295,20 +2301,20 @@
     </row>
     <row r="3" spans="1:33" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="122"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2434,13 +2440,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="93" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="22" t="s">
@@ -2449,29 +2455,29 @@
       <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86" t="s">
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="P7" s="89" t="s">
+      <c r="P7" s="107" t="s">
         <v>110</v>
       </c>
       <c r="Q7" s="1"/>
@@ -2493,12 +2499,12 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="86"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="23">
         <v>43854</v>
       </c>
@@ -2514,11 +2520,11 @@
       <c r="K8" s="23">
         <v>43861</v>
       </c>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2538,13 +2544,13 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="99"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="60" t="s">
         <v>44</v>
       </c>
@@ -2583,8 +2589,8 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A10" s="111"/>
-      <c r="B10" s="100" t="s">
+      <c r="A10" s="102"/>
+      <c r="B10" s="96" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="48" t="s">
@@ -2626,7 +2632,7 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A11" s="111"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="97"/>
       <c r="C11" s="19" t="s">
         <v>77</v>
@@ -2665,7 +2671,7 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" ht="60">
-      <c r="A12" s="111"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="97"/>
       <c r="C12" s="19" t="s">
         <v>78</v>
@@ -2704,8 +2710,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A13" s="111"/>
-      <c r="B13" s="101"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="19" t="s">
         <v>79</v>
       </c>
@@ -2743,8 +2749,8 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" ht="36">
-      <c r="A14" s="111"/>
-      <c r="B14" s="94" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="112" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -2784,8 +2790,8 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" ht="36">
-      <c r="A15" s="111"/>
-      <c r="B15" s="95"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="20" t="s">
         <v>82</v>
       </c>
@@ -2802,7 +2808,9 @@
       <c r="L15" s="28"/>
       <c r="M15" s="13"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="5"/>
+      <c r="O15" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -2823,8 +2831,8 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" ht="36">
-      <c r="A16" s="111"/>
-      <c r="B16" s="94" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="112" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -2864,8 +2872,8 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" ht="36">
-      <c r="A17" s="111"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="19" t="s">
         <v>84</v>
       </c>
@@ -2903,8 +2911,8 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A18" s="111"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="19" t="s">
         <v>85</v>
       </c>
@@ -2942,8 +2950,8 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A19" s="111"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="19" t="s">
         <v>86</v>
       </c>
@@ -2981,8 +2989,8 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A20" s="111"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="19" t="s">
         <v>87</v>
       </c>
@@ -3020,8 +3028,8 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A21" s="111"/>
-      <c r="B21" s="95"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="20" t="s">
         <v>88</v>
       </c>
@@ -3059,8 +3067,8 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A22" s="111"/>
-      <c r="B22" s="91" t="s">
+      <c r="A22" s="102"/>
+      <c r="B22" s="109" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="20" t="s">
@@ -3100,8 +3108,8 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A23" s="111"/>
-      <c r="B23" s="92"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="20" t="s">
         <v>90</v>
       </c>
@@ -3139,8 +3147,8 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A24" s="111"/>
-      <c r="B24" s="92"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="20" t="s">
         <v>91</v>
       </c>
@@ -3178,8 +3186,8 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A25" s="111"/>
-      <c r="B25" s="93"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="51" t="s">
         <v>92</v>
       </c>
@@ -3217,7 +3225,7 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" ht="27" customHeight="1" thickBot="1">
-      <c r="A26" s="112"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="32" t="s">
         <v>23</v>
       </c>
@@ -3236,9 +3244,9 @@
       <c r="K26" s="42"/>
       <c r="L26" s="36"/>
       <c r="M26" s="33"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="124"/>
-      <c r="P26" s="124"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3258,13 +3266,13 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" ht="27.75" customHeight="1" thickTop="1">
-      <c r="A27" s="113" t="s">
+      <c r="A27" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="109"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="68" t="s">
         <v>48</v>
       </c>
@@ -3278,8 +3286,8 @@
       <c r="L27" s="58"/>
       <c r="M27" s="59"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="122"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -3299,7 +3307,7 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" ht="48">
-      <c r="A28" s="114"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="97" t="s">
         <v>24</v>
       </c>
@@ -3340,7 +3348,7 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" ht="48">
-      <c r="A29" s="114"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="97"/>
       <c r="C29" s="20" t="s">
         <v>95</v>
@@ -3379,8 +3387,8 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A30" s="114"/>
-      <c r="B30" s="106" t="s">
+      <c r="A30" s="105"/>
+      <c r="B30" s="94" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="20" t="s">
@@ -3420,8 +3428,8 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A31" s="114"/>
-      <c r="B31" s="107"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="20" t="s">
         <v>97</v>
       </c>
@@ -3437,9 +3445,9 @@
       <c r="K31" s="37"/>
       <c r="L31" s="46"/>
       <c r="M31" s="40"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="119"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="83"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -3459,7 +3467,7 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A32" s="114"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="24" t="s">
         <v>26</v>
       </c>
@@ -3477,10 +3485,10 @@
       <c r="J32" s="47"/>
       <c r="K32" s="37"/>
       <c r="L32" s="46"/>
-      <c r="M32" s="116"/>
+      <c r="M32" s="80"/>
       <c r="N32" s="20"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -3500,8 +3508,8 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A33" s="114"/>
-      <c r="B33" s="100" t="s">
+      <c r="A33" s="105"/>
+      <c r="B33" s="96" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -3519,9 +3527,9 @@
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="70"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="120"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -3541,7 +3549,7 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A34" s="114"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="97"/>
       <c r="C34" s="20" t="s">
         <v>91</v>
@@ -3558,9 +3566,9 @@
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="70"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -3580,8 +3588,8 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A35" s="114"/>
-      <c r="B35" s="101"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="20" t="s">
         <v>99</v>
       </c>
@@ -3597,9 +3605,9 @@
       <c r="K35" s="49"/>
       <c r="L35" s="20"/>
       <c r="M35" s="70"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="120"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -3619,11 +3627,11 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A36" s="114"/>
-      <c r="B36" s="102" t="s">
+      <c r="A36" s="105"/>
+      <c r="B36" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="103"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="66" t="s">
         <v>55</v>
       </c>
@@ -3636,9 +3644,9 @@
       <c r="K36" s="49"/>
       <c r="L36" s="49"/>
       <c r="M36" s="70"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -3658,11 +3666,11 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A37" s="114"/>
-      <c r="B37" s="104" t="s">
+      <c r="A37" s="105"/>
+      <c r="B37" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="105"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="69" t="s">
         <v>57</v>
       </c>
@@ -3675,9 +3683,9 @@
       <c r="K37" s="49"/>
       <c r="L37" s="49"/>
       <c r="M37" s="71"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="121"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -3697,11 +3705,11 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" ht="27.75" customHeight="1">
-      <c r="A38" s="115"/>
-      <c r="B38" s="104" t="s">
+      <c r="A38" s="106"/>
+      <c r="B38" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="105"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="69" t="s">
         <v>56</v>
       </c>
@@ -3714,9 +3722,9 @@
       <c r="K38" s="49"/>
       <c r="L38" s="49"/>
       <c r="M38" s="71"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="121"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -11588,6 +11596,20 @@
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="25">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
@@ -11599,20 +11621,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A9:A26"/>
     <mergeCell ref="A27:A38"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
